--- a/src/main/resources/user.xlsx
+++ b/src/main/resources/user.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -62,15 +62,6 @@
     <t>10000000</t>
   </si>
   <si>
-    <t>june</t>
-  </si>
-  <si>
-    <t>may@gmail.com</t>
-  </si>
-  <si>
-    <t>june@gmail.com</t>
-  </si>
-  <si>
     <t>PyiThu Hluttaw</t>
   </si>
   <si>
@@ -86,22 +77,25 @@
     <t>Staff</t>
   </si>
   <si>
-    <t>Supervisor</t>
-  </si>
-  <si>
-    <t>PyiDaungSu Hluttaw</t>
-  </si>
-  <si>
-    <t>july</t>
-  </si>
-  <si>
-    <t>july@gmail.com</t>
-  </si>
-  <si>
-    <t>AmyoTha Hluttaw</t>
-  </si>
-  <si>
-    <t>february@gmail.com</t>
+    <t>Constituency</t>
+  </si>
+  <si>
+    <t>ဘိုကလေးမဲဆန္ဒနယ်</t>
+  </si>
+  <si>
+    <t>ဓနုဖြူမဲဆန္ဒနယ်</t>
+  </si>
+  <si>
+    <t>september</t>
+  </si>
+  <si>
+    <t>user4@gmail.com</t>
+  </si>
+  <si>
+    <t>user5@gmail.com</t>
+  </si>
+  <si>
+    <t>user6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -167,36 +161,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -478,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +476,8 @@
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -515,114 +500,97 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>